--- a/개발 4팀 2차 미니 프로젝트/4) 개발 4팀_프로젝트_GanttChart.xlsx
+++ b/개발 4팀 2차 미니 프로젝트/4) 개발 4팀_프로젝트_GanttChart.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JSP23\shareFile\개발 4팀 2차 미니 프로젝트\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kosmo_21\Desktop\git\개발 4팀 2차 미니 프로젝트\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21239CF5-2B36-4850-BD63-FA358765248A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45620185-12D3-42AC-8DCA-F5167BDE4088}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6960" yWindow="15" windowWidth="17490" windowHeight="14565" tabRatio="598" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="598" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="간트차트_Gantt Chart" sheetId="1" r:id="rId1"/>
@@ -657,7 +657,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -1101,11 +1101,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1268,18 +1298,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1316,6 +1334,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1351,6 +1375,30 @@
     </xf>
     <xf numFmtId="176" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1628,10 +1676,10 @@
   <dimension ref="A1:AI1000"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <pane xSplit="7" ySplit="6" topLeftCell="N31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="6" topLeftCell="N7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomRight" activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1647,17 +1695,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="69" t="s">
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="55"/>
-      <c r="G1" s="56"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="67"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -1688,10 +1736,10 @@
       <c r="AI1" s="1"/>
     </row>
     <row r="2" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="66"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="68"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="64"/>
       <c r="E2" s="2" t="s">
         <v>35</v>
       </c>
@@ -1731,66 +1779,66 @@
       <c r="AI2" s="1"/>
     </row>
     <row r="3" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="73" t="s">
+      <c r="C3" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="73" t="s">
+      <c r="D3" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="74" t="s">
+      <c r="E3" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="80" t="s">
+      <c r="F3" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="81" t="s">
+      <c r="G3" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="54" t="s">
+      <c r="H3" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="55"/>
-      <c r="O3" s="55"/>
-      <c r="P3" s="55"/>
-      <c r="Q3" s="55"/>
-      <c r="R3" s="55"/>
-      <c r="S3" s="55"/>
-      <c r="T3" s="55"/>
-      <c r="U3" s="55"/>
-      <c r="V3" s="55"/>
-      <c r="W3" s="55"/>
-      <c r="X3" s="55"/>
-      <c r="Y3" s="55"/>
-      <c r="Z3" s="55"/>
-      <c r="AA3" s="55"/>
-      <c r="AB3" s="55"/>
-      <c r="AC3" s="55"/>
-      <c r="AD3" s="55"/>
-      <c r="AE3" s="55"/>
-      <c r="AF3" s="55"/>
-      <c r="AG3" s="55"/>
-      <c r="AH3" s="55"/>
-      <c r="AI3" s="56"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="66"/>
+      <c r="R3" s="66"/>
+      <c r="S3" s="66"/>
+      <c r="T3" s="66"/>
+      <c r="U3" s="66"/>
+      <c r="V3" s="66"/>
+      <c r="W3" s="66"/>
+      <c r="X3" s="66"/>
+      <c r="Y3" s="66"/>
+      <c r="Z3" s="66"/>
+      <c r="AA3" s="66"/>
+      <c r="AB3" s="66"/>
+      <c r="AC3" s="66"/>
+      <c r="AD3" s="66"/>
+      <c r="AE3" s="66"/>
+      <c r="AF3" s="66"/>
+      <c r="AG3" s="66"/>
+      <c r="AH3" s="66"/>
+      <c r="AI3" s="67"/>
     </row>
     <row r="4" spans="1:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="71"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
       <c r="H4" s="3">
         <v>44291</v>
       </c>
@@ -1877,49 +1925,49 @@
       </c>
     </row>
     <row r="5" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="72"/>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="57" t="s">
+      <c r="A5" s="70"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="55"/>
-      <c r="N5" s="56"/>
-      <c r="O5" s="57" t="s">
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="67"/>
+      <c r="O5" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="P5" s="55"/>
-      <c r="Q5" s="55"/>
-      <c r="R5" s="55"/>
-      <c r="S5" s="55"/>
-      <c r="T5" s="55"/>
-      <c r="U5" s="56"/>
-      <c r="V5" s="57" t="s">
+      <c r="P5" s="66"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="66"/>
+      <c r="T5" s="66"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="W5" s="55"/>
-      <c r="X5" s="55"/>
-      <c r="Y5" s="55"/>
-      <c r="Z5" s="55"/>
-      <c r="AA5" s="55"/>
-      <c r="AB5" s="56"/>
-      <c r="AC5" s="57" t="s">
+      <c r="W5" s="66"/>
+      <c r="X5" s="66"/>
+      <c r="Y5" s="66"/>
+      <c r="Z5" s="66"/>
+      <c r="AA5" s="66"/>
+      <c r="AB5" s="67"/>
+      <c r="AC5" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="AD5" s="55"/>
-      <c r="AE5" s="55"/>
-      <c r="AF5" s="55"/>
-      <c r="AG5" s="55"/>
-      <c r="AH5" s="55"/>
-      <c r="AI5" s="56"/>
+      <c r="AD5" s="66"/>
+      <c r="AE5" s="66"/>
+      <c r="AF5" s="66"/>
+      <c r="AG5" s="66"/>
+      <c r="AH5" s="66"/>
+      <c r="AI5" s="67"/>
     </row>
     <row r="6" spans="1:35" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
@@ -2015,7 +2063,7 @@
       </c>
     </row>
     <row r="7" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="75" t="s">
+      <c r="A7" s="73" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="23" t="s">
@@ -2149,7 +2197,7 @@
       </c>
     </row>
     <row r="8" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="59"/>
+      <c r="A8" s="55"/>
       <c r="B8" s="21" t="s">
         <v>40</v>
       </c>
@@ -2279,7 +2327,7 @@
       </c>
     </row>
     <row r="9" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="59"/>
+      <c r="A9" s="55"/>
       <c r="B9" s="21" t="s">
         <v>0</v>
       </c>
@@ -2409,7 +2457,7 @@
       </c>
     </row>
     <row r="10" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="59"/>
+      <c r="A10" s="55"/>
       <c r="B10" s="21" t="s">
         <v>26</v>
       </c>
@@ -2539,7 +2587,7 @@
       </c>
     </row>
     <row r="11" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="59"/>
+      <c r="A11" s="55"/>
       <c r="B11" s="21"/>
       <c r="C11" s="16"/>
       <c r="D11" s="17"/>
@@ -2612,7 +2660,7 @@
       </c>
     </row>
     <row r="12" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="59"/>
+      <c r="A12" s="55"/>
       <c r="B12" s="21"/>
       <c r="C12" s="16"/>
       <c r="D12" s="17"/>
@@ -2685,7 +2733,7 @@
       </c>
     </row>
     <row r="13" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="59"/>
+      <c r="A13" s="55"/>
       <c r="B13" s="21"/>
       <c r="C13" s="16"/>
       <c r="D13" s="17"/>
@@ -2761,7 +2809,7 @@
       </c>
     </row>
     <row r="14" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="60"/>
+      <c r="A14" s="56"/>
       <c r="B14" s="28"/>
       <c r="C14" s="29"/>
       <c r="D14" s="30"/>
@@ -2834,7 +2882,7 @@
       </c>
     </row>
     <row r="15" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="76" t="s">
+      <c r="A15" s="74" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="35" t="s">
@@ -2966,7 +3014,7 @@
       </c>
     </row>
     <row r="16" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="59"/>
+      <c r="A16" s="55"/>
       <c r="B16" s="22" t="s">
         <v>27</v>
       </c>
@@ -3096,7 +3144,7 @@
       </c>
     </row>
     <row r="17" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="59"/>
+      <c r="A17" s="55"/>
       <c r="B17" s="21"/>
       <c r="C17" s="16"/>
       <c r="D17" s="17"/>
@@ -3220,7 +3268,7 @@
       </c>
     </row>
     <row r="18" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="59"/>
+      <c r="A18" s="55"/>
       <c r="B18" s="21"/>
       <c r="C18" s="16"/>
       <c r="D18" s="17"/>
@@ -3344,7 +3392,7 @@
       </c>
     </row>
     <row r="19" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="59"/>
+      <c r="A19" s="55"/>
       <c r="B19" s="21"/>
       <c r="C19" s="16"/>
       <c r="D19" s="17"/>
@@ -3468,7 +3516,7 @@
       </c>
     </row>
     <row r="20" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="59"/>
+      <c r="A20" s="55"/>
       <c r="B20" s="21"/>
       <c r="C20" s="16"/>
       <c r="D20" s="17"/>
@@ -3592,7 +3640,7 @@
       </c>
     </row>
     <row r="21" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="59"/>
+      <c r="A21" s="55"/>
       <c r="B21" s="21"/>
       <c r="C21" s="16"/>
       <c r="D21" s="17"/>
@@ -3715,8 +3763,8 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="60"/>
+    <row r="22" spans="1:35" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="56"/>
       <c r="B22" s="28"/>
       <c r="C22" s="29"/>
       <c r="D22" s="30"/>
@@ -3840,22 +3888,22 @@
       </c>
     </row>
     <row r="23" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="77" t="s">
+      <c r="A23" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="36"/>
-      <c r="D23" s="37">
+      <c r="B23" s="82" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="83"/>
+      <c r="D23" s="84">
         <v>44302</v>
       </c>
-      <c r="E23" s="37">
-        <v>44306</v>
+      <c r="E23" s="84">
+        <v>44304</v>
       </c>
       <c r="F23" s="38">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G23" s="39"/>
       <c r="H23" s="40" t="str">
@@ -3916,11 +3964,11 @@
       </c>
       <c r="V23" s="40" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="W23" s="40" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
+        <v/>
       </c>
       <c r="X23" s="40" t="str">
         <f t="shared" si="1"/>
@@ -3972,20 +4020,20 @@
       </c>
     </row>
     <row r="24" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="59"/>
-      <c r="B24" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="17">
-        <v>44302</v>
-      </c>
-      <c r="E24" s="17">
+      <c r="A24" s="55"/>
+      <c r="B24" s="85" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="86"/>
+      <c r="D24" s="87">
+        <v>44305</v>
+      </c>
+      <c r="E24" s="87">
         <v>44306</v>
       </c>
       <c r="F24" s="18">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G24" s="19"/>
       <c r="H24" s="20" t="str">
@@ -4034,24 +4082,24 @@
       </c>
       <c r="S24" s="20" t="str">
         <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="T24" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="U24" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="V24" s="20" t="str">
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="T24" s="20" t="str">
+      <c r="W24" s="20" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="U24" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="V24" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="W24" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
       <c r="X24" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -4102,11 +4150,11 @@
       </c>
     </row>
     <row r="25" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="59"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
+      <c r="A25" s="55"/>
+      <c r="B25" s="85"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="87"/>
+      <c r="E25" s="87"/>
       <c r="F25" s="18">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4226,7 +4274,7 @@
       </c>
     </row>
     <row r="26" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="59"/>
+      <c r="A26" s="55"/>
       <c r="B26" s="21"/>
       <c r="C26" s="16"/>
       <c r="D26" s="17"/>
@@ -4350,7 +4398,7 @@
       </c>
     </row>
     <row r="27" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="59"/>
+      <c r="A27" s="55"/>
       <c r="B27" s="21"/>
       <c r="C27" s="16"/>
       <c r="D27" s="17"/>
@@ -4474,7 +4522,7 @@
       </c>
     </row>
     <row r="28" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="59"/>
+      <c r="A28" s="55"/>
       <c r="B28" s="21"/>
       <c r="C28" s="16"/>
       <c r="D28" s="17"/>
@@ -4514,7 +4562,7 @@
       <c r="AI28" s="27"/>
     </row>
     <row r="29" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="59"/>
+      <c r="A29" s="55"/>
       <c r="B29" s="21"/>
       <c r="C29" s="16"/>
       <c r="D29" s="17"/>
@@ -4638,7 +4686,7 @@
       </c>
     </row>
     <row r="30" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="60"/>
+      <c r="A30" s="56"/>
       <c r="B30" s="28"/>
       <c r="C30" s="29"/>
       <c r="D30" s="30"/>
@@ -4762,7 +4810,7 @@
       </c>
     </row>
     <row r="31" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="78" t="s">
+      <c r="A31" s="76" t="s">
         <v>15</v>
       </c>
       <c r="B31" s="35" t="s">
@@ -4894,7 +4942,7 @@
       </c>
     </row>
     <row r="32" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="59"/>
+      <c r="A32" s="55"/>
       <c r="B32" s="22" t="s">
         <v>27</v>
       </c>
@@ -5024,7 +5072,7 @@
       </c>
     </row>
     <row r="33" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="59"/>
+      <c r="A33" s="55"/>
       <c r="B33" s="21"/>
       <c r="C33" s="16"/>
       <c r="D33" s="17"/>
@@ -5148,7 +5196,7 @@
       </c>
     </row>
     <row r="34" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="59"/>
+      <c r="A34" s="55"/>
       <c r="B34" s="21"/>
       <c r="C34" s="16"/>
       <c r="D34" s="17"/>
@@ -5272,7 +5320,7 @@
       </c>
     </row>
     <row r="35" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="59"/>
+      <c r="A35" s="55"/>
       <c r="B35" s="21"/>
       <c r="C35" s="16"/>
       <c r="D35" s="17"/>
@@ -5396,7 +5444,7 @@
       </c>
     </row>
     <row r="36" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="59"/>
+      <c r="A36" s="55"/>
       <c r="B36" s="21"/>
       <c r="C36" s="16"/>
       <c r="D36" s="17"/>
@@ -5436,7 +5484,7 @@
       <c r="AI36" s="27"/>
     </row>
     <row r="37" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="59"/>
+      <c r="A37" s="55"/>
       <c r="B37" s="21"/>
       <c r="C37" s="16"/>
       <c r="D37" s="17"/>
@@ -5560,7 +5608,7 @@
       </c>
     </row>
     <row r="38" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="60"/>
+      <c r="A38" s="56"/>
       <c r="B38" s="28"/>
       <c r="C38" s="29"/>
       <c r="D38" s="30"/>
@@ -5684,7 +5732,7 @@
       </c>
     </row>
     <row r="39" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="79" t="s">
+      <c r="A39" s="77" t="s">
         <v>5</v>
       </c>
       <c r="B39" s="35" t="s">
@@ -5816,7 +5864,7 @@
       </c>
     </row>
     <row r="40" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="59"/>
+      <c r="A40" s="55"/>
       <c r="B40" s="22" t="s">
         <v>27</v>
       </c>
@@ -5946,7 +5994,7 @@
       </c>
     </row>
     <row r="41" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="59"/>
+      <c r="A41" s="55"/>
       <c r="B41" s="21"/>
       <c r="C41" s="16"/>
       <c r="D41" s="17"/>
@@ -6070,7 +6118,7 @@
       </c>
     </row>
     <row r="42" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="59"/>
+      <c r="A42" s="55"/>
       <c r="B42" s="21"/>
       <c r="C42" s="16"/>
       <c r="D42" s="17"/>
@@ -6194,7 +6242,7 @@
       </c>
     </row>
     <row r="43" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="59"/>
+      <c r="A43" s="55"/>
       <c r="B43" s="21"/>
       <c r="C43" s="16"/>
       <c r="D43" s="17"/>
@@ -6318,7 +6366,7 @@
       </c>
     </row>
     <row r="44" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="59"/>
+      <c r="A44" s="55"/>
       <c r="B44" s="21"/>
       <c r="C44" s="16"/>
       <c r="D44" s="17"/>
@@ -6358,7 +6406,7 @@
       <c r="AI44" s="27"/>
     </row>
     <row r="45" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="59"/>
+      <c r="A45" s="55"/>
       <c r="B45" s="21"/>
       <c r="C45" s="16"/>
       <c r="D45" s="17"/>
@@ -6482,7 +6530,7 @@
       </c>
     </row>
     <row r="46" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="60"/>
+      <c r="A46" s="56"/>
       <c r="B46" s="28"/>
       <c r="C46" s="29"/>
       <c r="D46" s="30"/>
@@ -6606,7 +6654,7 @@
       </c>
     </row>
     <row r="47" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="58" t="s">
+      <c r="A47" s="54" t="s">
         <v>2</v>
       </c>
       <c r="B47" s="35" t="s">
@@ -6738,7 +6786,7 @@
       </c>
     </row>
     <row r="48" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="59"/>
+      <c r="A48" s="55"/>
       <c r="B48" s="22" t="s">
         <v>27</v>
       </c>
@@ -6868,7 +6916,7 @@
       </c>
     </row>
     <row r="49" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="59"/>
+      <c r="A49" s="55"/>
       <c r="B49" s="21"/>
       <c r="C49" s="16"/>
       <c r="D49" s="17"/>
@@ -6992,7 +7040,7 @@
       </c>
     </row>
     <row r="50" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="59"/>
+      <c r="A50" s="55"/>
       <c r="B50" s="21"/>
       <c r="C50" s="16"/>
       <c r="D50" s="17"/>
@@ -7116,7 +7164,7 @@
       </c>
     </row>
     <row r="51" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="59"/>
+      <c r="A51" s="55"/>
       <c r="B51" s="21"/>
       <c r="C51" s="16"/>
       <c r="D51" s="17"/>
@@ -7240,7 +7288,7 @@
       </c>
     </row>
     <row r="52" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="59"/>
+      <c r="A52" s="55"/>
       <c r="B52" s="21"/>
       <c r="C52" s="16"/>
       <c r="D52" s="17"/>
@@ -7280,7 +7328,7 @@
       <c r="AI52" s="27"/>
     </row>
     <row r="53" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="59"/>
+      <c r="A53" s="55"/>
       <c r="B53" s="21"/>
       <c r="C53" s="16"/>
       <c r="D53" s="17"/>
@@ -7404,7 +7452,7 @@
       </c>
     </row>
     <row r="54" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="60"/>
+      <c r="A54" s="56"/>
       <c r="B54" s="28"/>
       <c r="C54" s="29"/>
       <c r="D54" s="30"/>
@@ -7528,7 +7576,7 @@
       </c>
     </row>
     <row r="55" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="61" t="s">
+      <c r="A55" s="57" t="s">
         <v>18</v>
       </c>
       <c r="B55" s="35" t="s">
@@ -7660,7 +7708,7 @@
       </c>
     </row>
     <row r="56" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="59"/>
+      <c r="A56" s="55"/>
       <c r="B56" s="22" t="s">
         <v>27</v>
       </c>
@@ -7790,7 +7838,7 @@
       </c>
     </row>
     <row r="57" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="59"/>
+      <c r="A57" s="55"/>
       <c r="B57" s="21"/>
       <c r="C57" s="16"/>
       <c r="D57" s="17"/>
@@ -7914,7 +7962,7 @@
       </c>
     </row>
     <row r="58" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="59"/>
+      <c r="A58" s="55"/>
       <c r="B58" s="21"/>
       <c r="C58" s="16"/>
       <c r="D58" s="17"/>
@@ -8038,7 +8086,7 @@
       </c>
     </row>
     <row r="59" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="59"/>
+      <c r="A59" s="55"/>
       <c r="B59" s="21"/>
       <c r="C59" s="16"/>
       <c r="D59" s="17"/>
@@ -8162,7 +8210,7 @@
       </c>
     </row>
     <row r="60" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="59"/>
+      <c r="A60" s="55"/>
       <c r="B60" s="21"/>
       <c r="C60" s="16"/>
       <c r="D60" s="17"/>
@@ -8286,7 +8334,7 @@
       </c>
     </row>
     <row r="61" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="59"/>
+      <c r="A61" s="55"/>
       <c r="B61" s="21"/>
       <c r="C61" s="16"/>
       <c r="D61" s="17"/>
@@ -8410,7 +8458,7 @@
       </c>
     </row>
     <row r="62" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="62"/>
+      <c r="A62" s="58"/>
       <c r="B62" s="42"/>
       <c r="C62" s="43"/>
       <c r="D62" s="44"/>
@@ -38557,6 +38605,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="H3:AI3"/>
+    <mergeCell ref="H5:N5"/>
+    <mergeCell ref="O5:U5"/>
+    <mergeCell ref="V5:AB5"/>
+    <mergeCell ref="AC5:AI5"/>
     <mergeCell ref="A47:A54"/>
     <mergeCell ref="A55:A62"/>
     <mergeCell ref="A1:D2"/>
@@ -38573,11 +38626,6 @@
     <mergeCell ref="A39:A46"/>
     <mergeCell ref="F3:F5"/>
     <mergeCell ref="G3:G5"/>
-    <mergeCell ref="H3:AI3"/>
-    <mergeCell ref="H5:N5"/>
-    <mergeCell ref="O5:U5"/>
-    <mergeCell ref="V5:AB5"/>
-    <mergeCell ref="AC5:AI5"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="H17:AI22">

--- a/개발 4팀 2차 미니 프로젝트/4) 개발 4팀_프로젝트_GanttChart.xlsx
+++ b/개발 4팀 2차 미니 프로젝트/4) 개발 4팀_프로젝트_GanttChart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kosmo_21\Desktop\git\개발 4팀 2차 미니 프로젝트\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45620185-12D3-42AC-8DCA-F5167BDE4088}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA06AB47-E92A-4174-9C6A-C0B0F1D0E126}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="598" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7380" yWindow="2550" windowWidth="21600" windowHeight="11385" tabRatio="598" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="간트차트_Gantt Chart" sheetId="1" r:id="rId1"/>
@@ -143,9 +143,6 @@
   </si>
   <si>
     <t>박지선</t>
-  </si>
-  <si>
-    <t xml:space="preserve">※ 개발 4팀 프로젝트명 = 꿈꾸는 서재         </t>
   </si>
   <si>
     <r>
@@ -505,6 +502,103 @@
       <t>보고서(회원가입)</t>
     </r>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>※</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개발</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 4</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>팀</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>프로젝트(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t>SpringBoard)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -518,7 +612,7 @@
     <numFmt numFmtId="180" formatCode="aaa"/>
     <numFmt numFmtId="181" formatCode="m\/d"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -579,6 +673,36 @@
     <font>
       <sz val="8"/>
       <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
@@ -1298,6 +1422,36 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1312,9 +1466,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1333,12 +1484,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -1376,29 +1521,8 @@
     <xf numFmtId="176" fontId="7" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1679,7 +1803,7 @@
       <pane xSplit="7" ySplit="6" topLeftCell="N7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G26" sqref="G26"/>
+      <selection pane="bottomRight" sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1695,17 +1819,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="59" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="65" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" s="66"/>
-      <c r="G1" s="67"/>
+      <c r="A1" s="87" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="74" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="61"/>
+      <c r="G1" s="62"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -1736,18 +1860,18 @@
       <c r="AI1" s="1"/>
     </row>
     <row r="2" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="62"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="64"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="73"/>
       <c r="E2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -1779,66 +1903,66 @@
       <c r="AI2" s="1"/>
     </row>
     <row r="3" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="68" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="71" t="s">
+      <c r="B3" s="75" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="71" t="s">
+      <c r="D3" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="72" t="s">
+      <c r="E3" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="78" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="79" t="s">
+      <c r="F3" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="80" t="s">
+      <c r="G3" s="86" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="T3" s="66"/>
-      <c r="U3" s="66"/>
-      <c r="V3" s="66"/>
-      <c r="W3" s="66"/>
-      <c r="X3" s="66"/>
-      <c r="Y3" s="66"/>
-      <c r="Z3" s="66"/>
-      <c r="AA3" s="66"/>
-      <c r="AB3" s="66"/>
-      <c r="AC3" s="66"/>
-      <c r="AD3" s="66"/>
-      <c r="AE3" s="66"/>
-      <c r="AF3" s="66"/>
-      <c r="AG3" s="66"/>
-      <c r="AH3" s="66"/>
-      <c r="AI3" s="67"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="61"/>
+      <c r="S3" s="61"/>
+      <c r="T3" s="61"/>
+      <c r="U3" s="61"/>
+      <c r="V3" s="61"/>
+      <c r="W3" s="61"/>
+      <c r="X3" s="61"/>
+      <c r="Y3" s="61"/>
+      <c r="Z3" s="61"/>
+      <c r="AA3" s="61"/>
+      <c r="AB3" s="61"/>
+      <c r="AC3" s="61"/>
+      <c r="AD3" s="61"/>
+      <c r="AE3" s="61"/>
+      <c r="AF3" s="61"/>
+      <c r="AG3" s="61"/>
+      <c r="AH3" s="61"/>
+      <c r="AI3" s="62"/>
     </row>
     <row r="4" spans="1:35" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="69"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
+      <c r="A4" s="76"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
       <c r="H4" s="3">
         <v>44291</v>
       </c>
@@ -1924,50 +2048,50 @@
         <v>44318</v>
       </c>
     </row>
-    <row r="5" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="70"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="81" t="s">
+    <row r="5" spans="1:35" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="77"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
-      <c r="L5" s="66"/>
-      <c r="M5" s="66"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="81" t="s">
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="61"/>
+      <c r="N5" s="62"/>
+      <c r="O5" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="P5" s="66"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="66"/>
-      <c r="T5" s="66"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="81" t="s">
+      <c r="P5" s="61"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
+      <c r="S5" s="61"/>
+      <c r="T5" s="61"/>
+      <c r="U5" s="62"/>
+      <c r="V5" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="W5" s="66"/>
-      <c r="X5" s="66"/>
-      <c r="Y5" s="66"/>
-      <c r="Z5" s="66"/>
-      <c r="AA5" s="66"/>
-      <c r="AB5" s="67"/>
-      <c r="AC5" s="81" t="s">
+      <c r="W5" s="61"/>
+      <c r="X5" s="61"/>
+      <c r="Y5" s="61"/>
+      <c r="Z5" s="61"/>
+      <c r="AA5" s="61"/>
+      <c r="AB5" s="62"/>
+      <c r="AC5" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="AD5" s="66"/>
-      <c r="AE5" s="66"/>
-      <c r="AF5" s="66"/>
-      <c r="AG5" s="66"/>
-      <c r="AH5" s="66"/>
-      <c r="AI5" s="67"/>
+      <c r="AD5" s="61"/>
+      <c r="AE5" s="61"/>
+      <c r="AF5" s="61"/>
+      <c r="AG5" s="61"/>
+      <c r="AH5" s="61"/>
+      <c r="AI5" s="62"/>
     </row>
     <row r="6" spans="1:35" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
@@ -2063,11 +2187,11 @@
       </c>
     </row>
     <row r="7" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="73" t="s">
+      <c r="A7" s="80" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" s="24"/>
       <c r="D7" s="17">
@@ -2197,9 +2321,9 @@
       </c>
     </row>
     <row r="8" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="55"/>
+      <c r="A8" s="65"/>
       <c r="B8" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="17">
@@ -2327,7 +2451,7 @@
       </c>
     </row>
     <row r="9" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="55"/>
+      <c r="A9" s="65"/>
       <c r="B9" s="21" t="s">
         <v>0</v>
       </c>
@@ -2457,9 +2581,9 @@
       </c>
     </row>
     <row r="10" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="55"/>
+      <c r="A10" s="65"/>
       <c r="B10" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="16"/>
       <c r="D10" s="17">
@@ -2587,7 +2711,7 @@
       </c>
     </row>
     <row r="11" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="55"/>
+      <c r="A11" s="65"/>
       <c r="B11" s="21"/>
       <c r="C11" s="16"/>
       <c r="D11" s="17"/>
@@ -2660,7 +2784,7 @@
       </c>
     </row>
     <row r="12" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="55"/>
+      <c r="A12" s="65"/>
       <c r="B12" s="21"/>
       <c r="C12" s="16"/>
       <c r="D12" s="17"/>
@@ -2733,7 +2857,7 @@
       </c>
     </row>
     <row r="13" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="55"/>
+      <c r="A13" s="65"/>
       <c r="B13" s="21"/>
       <c r="C13" s="16"/>
       <c r="D13" s="17"/>
@@ -2809,7 +2933,7 @@
       </c>
     </row>
     <row r="14" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="56"/>
+      <c r="A14" s="66"/>
       <c r="B14" s="28"/>
       <c r="C14" s="29"/>
       <c r="D14" s="30"/>
@@ -2882,11 +3006,11 @@
       </c>
     </row>
     <row r="15" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="74" t="s">
+      <c r="A15" s="81" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15" s="36"/>
       <c r="D15" s="37">
@@ -3014,9 +3138,9 @@
       </c>
     </row>
     <row r="16" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="55"/>
+      <c r="A16" s="65"/>
       <c r="B16" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="17">
@@ -3144,7 +3268,7 @@
       </c>
     </row>
     <row r="17" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="55"/>
+      <c r="A17" s="65"/>
       <c r="B17" s="21"/>
       <c r="C17" s="16"/>
       <c r="D17" s="17"/>
@@ -3268,7 +3392,7 @@
       </c>
     </row>
     <row r="18" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="55"/>
+      <c r="A18" s="65"/>
       <c r="B18" s="21"/>
       <c r="C18" s="16"/>
       <c r="D18" s="17"/>
@@ -3392,7 +3516,7 @@
       </c>
     </row>
     <row r="19" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="55"/>
+      <c r="A19" s="65"/>
       <c r="B19" s="21"/>
       <c r="C19" s="16"/>
       <c r="D19" s="17"/>
@@ -3516,7 +3640,7 @@
       </c>
     </row>
     <row r="20" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="55"/>
+      <c r="A20" s="65"/>
       <c r="B20" s="21"/>
       <c r="C20" s="16"/>
       <c r="D20" s="17"/>
@@ -3640,7 +3764,7 @@
       </c>
     </row>
     <row r="21" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="55"/>
+      <c r="A21" s="65"/>
       <c r="B21" s="21"/>
       <c r="C21" s="16"/>
       <c r="D21" s="17"/>
@@ -3764,7 +3888,7 @@
       </c>
     </row>
     <row r="22" spans="1:35" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="56"/>
+      <c r="A22" s="66"/>
       <c r="B22" s="28"/>
       <c r="C22" s="29"/>
       <c r="D22" s="30"/>
@@ -3888,17 +4012,17 @@
       </c>
     </row>
     <row r="23" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="75" t="s">
+      <c r="A23" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="82" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="83"/>
-      <c r="D23" s="84">
+      <c r="B23" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="55"/>
+      <c r="D23" s="56">
         <v>44302</v>
       </c>
-      <c r="E23" s="84">
+      <c r="E23" s="56">
         <v>44304</v>
       </c>
       <c r="F23" s="38">
@@ -4020,15 +4144,15 @@
       </c>
     </row>
     <row r="24" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="55"/>
-      <c r="B24" s="85" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="86"/>
-      <c r="D24" s="87">
+      <c r="A24" s="65"/>
+      <c r="B24" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="58"/>
+      <c r="D24" s="59">
         <v>44305</v>
       </c>
-      <c r="E24" s="87">
+      <c r="E24" s="59">
         <v>44306</v>
       </c>
       <c r="F24" s="18">
@@ -4150,11 +4274,11 @@
       </c>
     </row>
     <row r="25" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="55"/>
-      <c r="B25" s="85"/>
-      <c r="C25" s="86"/>
-      <c r="D25" s="87"/>
-      <c r="E25" s="87"/>
+      <c r="A25" s="65"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
       <c r="F25" s="18">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -4274,7 +4398,7 @@
       </c>
     </row>
     <row r="26" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="55"/>
+      <c r="A26" s="65"/>
       <c r="B26" s="21"/>
       <c r="C26" s="16"/>
       <c r="D26" s="17"/>
@@ -4398,7 +4522,7 @@
       </c>
     </row>
     <row r="27" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="55"/>
+      <c r="A27" s="65"/>
       <c r="B27" s="21"/>
       <c r="C27" s="16"/>
       <c r="D27" s="17"/>
@@ -4522,7 +4646,7 @@
       </c>
     </row>
     <row r="28" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="55"/>
+      <c r="A28" s="65"/>
       <c r="B28" s="21"/>
       <c r="C28" s="16"/>
       <c r="D28" s="17"/>
@@ -4562,7 +4686,7 @@
       <c r="AI28" s="27"/>
     </row>
     <row r="29" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="55"/>
+      <c r="A29" s="65"/>
       <c r="B29" s="21"/>
       <c r="C29" s="16"/>
       <c r="D29" s="17"/>
@@ -4686,7 +4810,7 @@
       </c>
     </row>
     <row r="30" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="56"/>
+      <c r="A30" s="66"/>
       <c r="B30" s="28"/>
       <c r="C30" s="29"/>
       <c r="D30" s="30"/>
@@ -4810,11 +4934,11 @@
       </c>
     </row>
     <row r="31" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="76" t="s">
+      <c r="A31" s="83" t="s">
         <v>15</v>
       </c>
       <c r="B31" s="35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C31" s="36"/>
       <c r="D31" s="37">
@@ -4942,9 +5066,9 @@
       </c>
     </row>
     <row r="32" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="55"/>
+      <c r="A32" s="65"/>
       <c r="B32" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C32" s="16"/>
       <c r="D32" s="17">
@@ -5072,7 +5196,7 @@
       </c>
     </row>
     <row r="33" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="55"/>
+      <c r="A33" s="65"/>
       <c r="B33" s="21"/>
       <c r="C33" s="16"/>
       <c r="D33" s="17"/>
@@ -5196,7 +5320,7 @@
       </c>
     </row>
     <row r="34" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="55"/>
+      <c r="A34" s="65"/>
       <c r="B34" s="21"/>
       <c r="C34" s="16"/>
       <c r="D34" s="17"/>
@@ -5320,7 +5444,7 @@
       </c>
     </row>
     <row r="35" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="55"/>
+      <c r="A35" s="65"/>
       <c r="B35" s="21"/>
       <c r="C35" s="16"/>
       <c r="D35" s="17"/>
@@ -5444,7 +5568,7 @@
       </c>
     </row>
     <row r="36" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="55"/>
+      <c r="A36" s="65"/>
       <c r="B36" s="21"/>
       <c r="C36" s="16"/>
       <c r="D36" s="17"/>
@@ -5484,7 +5608,7 @@
       <c r="AI36" s="27"/>
     </row>
     <row r="37" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="55"/>
+      <c r="A37" s="65"/>
       <c r="B37" s="21"/>
       <c r="C37" s="16"/>
       <c r="D37" s="17"/>
@@ -5608,7 +5732,7 @@
       </c>
     </row>
     <row r="38" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="56"/>
+      <c r="A38" s="66"/>
       <c r="B38" s="28"/>
       <c r="C38" s="29"/>
       <c r="D38" s="30"/>
@@ -5732,11 +5856,11 @@
       </c>
     </row>
     <row r="39" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="77" t="s">
+      <c r="A39" s="84" t="s">
         <v>5</v>
       </c>
       <c r="B39" s="35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C39" s="36"/>
       <c r="D39" s="37">
@@ -5864,9 +5988,9 @@
       </c>
     </row>
     <row r="40" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="55"/>
+      <c r="A40" s="65"/>
       <c r="B40" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C40" s="16"/>
       <c r="D40" s="17">
@@ -5994,7 +6118,7 @@
       </c>
     </row>
     <row r="41" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="55"/>
+      <c r="A41" s="65"/>
       <c r="B41" s="21"/>
       <c r="C41" s="16"/>
       <c r="D41" s="17"/>
@@ -6118,7 +6242,7 @@
       </c>
     </row>
     <row r="42" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="55"/>
+      <c r="A42" s="65"/>
       <c r="B42" s="21"/>
       <c r="C42" s="16"/>
       <c r="D42" s="17"/>
@@ -6242,7 +6366,7 @@
       </c>
     </row>
     <row r="43" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="55"/>
+      <c r="A43" s="65"/>
       <c r="B43" s="21"/>
       <c r="C43" s="16"/>
       <c r="D43" s="17"/>
@@ -6366,7 +6490,7 @@
       </c>
     </row>
     <row r="44" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="55"/>
+      <c r="A44" s="65"/>
       <c r="B44" s="21"/>
       <c r="C44" s="16"/>
       <c r="D44" s="17"/>
@@ -6406,7 +6530,7 @@
       <c r="AI44" s="27"/>
     </row>
     <row r="45" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="55"/>
+      <c r="A45" s="65"/>
       <c r="B45" s="21"/>
       <c r="C45" s="16"/>
       <c r="D45" s="17"/>
@@ -6530,7 +6654,7 @@
       </c>
     </row>
     <row r="46" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="56"/>
+      <c r="A46" s="66"/>
       <c r="B46" s="28"/>
       <c r="C46" s="29"/>
       <c r="D46" s="30"/>
@@ -6654,11 +6778,11 @@
       </c>
     </row>
     <row r="47" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="54" t="s">
+      <c r="A47" s="64" t="s">
         <v>2</v>
       </c>
       <c r="B47" s="35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C47" s="36"/>
       <c r="D47" s="37">
@@ -6786,9 +6910,9 @@
       </c>
     </row>
     <row r="48" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="55"/>
+      <c r="A48" s="65"/>
       <c r="B48" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C48" s="16"/>
       <c r="D48" s="17">
@@ -6916,7 +7040,7 @@
       </c>
     </row>
     <row r="49" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="55"/>
+      <c r="A49" s="65"/>
       <c r="B49" s="21"/>
       <c r="C49" s="16"/>
       <c r="D49" s="17"/>
@@ -7040,7 +7164,7 @@
       </c>
     </row>
     <row r="50" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="55"/>
+      <c r="A50" s="65"/>
       <c r="B50" s="21"/>
       <c r="C50" s="16"/>
       <c r="D50" s="17"/>
@@ -7164,7 +7288,7 @@
       </c>
     </row>
     <row r="51" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="55"/>
+      <c r="A51" s="65"/>
       <c r="B51" s="21"/>
       <c r="C51" s="16"/>
       <c r="D51" s="17"/>
@@ -7288,7 +7412,7 @@
       </c>
     </row>
     <row r="52" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="55"/>
+      <c r="A52" s="65"/>
       <c r="B52" s="21"/>
       <c r="C52" s="16"/>
       <c r="D52" s="17"/>
@@ -7328,7 +7452,7 @@
       <c r="AI52" s="27"/>
     </row>
     <row r="53" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="55"/>
+      <c r="A53" s="65"/>
       <c r="B53" s="21"/>
       <c r="C53" s="16"/>
       <c r="D53" s="17"/>
@@ -7452,7 +7576,7 @@
       </c>
     </row>
     <row r="54" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="56"/>
+      <c r="A54" s="66"/>
       <c r="B54" s="28"/>
       <c r="C54" s="29"/>
       <c r="D54" s="30"/>
@@ -7576,11 +7700,11 @@
       </c>
     </row>
     <row r="55" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="57" t="s">
+      <c r="A55" s="67" t="s">
         <v>18</v>
       </c>
       <c r="B55" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C55" s="36"/>
       <c r="D55" s="37">
@@ -7708,9 +7832,9 @@
       </c>
     </row>
     <row r="56" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="55"/>
+      <c r="A56" s="65"/>
       <c r="B56" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C56" s="16"/>
       <c r="D56" s="17">
@@ -7838,7 +7962,7 @@
       </c>
     </row>
     <row r="57" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="55"/>
+      <c r="A57" s="65"/>
       <c r="B57" s="21"/>
       <c r="C57" s="16"/>
       <c r="D57" s="17"/>
@@ -7962,7 +8086,7 @@
       </c>
     </row>
     <row r="58" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="55"/>
+      <c r="A58" s="65"/>
       <c r="B58" s="21"/>
       <c r="C58" s="16"/>
       <c r="D58" s="17"/>
@@ -8086,7 +8210,7 @@
       </c>
     </row>
     <row r="59" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="55"/>
+      <c r="A59" s="65"/>
       <c r="B59" s="21"/>
       <c r="C59" s="16"/>
       <c r="D59" s="17"/>
@@ -8210,7 +8334,7 @@
       </c>
     </row>
     <row r="60" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="55"/>
+      <c r="A60" s="65"/>
       <c r="B60" s="21"/>
       <c r="C60" s="16"/>
       <c r="D60" s="17"/>
@@ -8334,7 +8458,7 @@
       </c>
     </row>
     <row r="61" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="55"/>
+      <c r="A61" s="65"/>
       <c r="B61" s="21"/>
       <c r="C61" s="16"/>
       <c r="D61" s="17"/>
@@ -8458,7 +8582,7 @@
       </c>
     </row>
     <row r="62" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="58"/>
+      <c r="A62" s="68"/>
       <c r="B62" s="42"/>
       <c r="C62" s="43"/>
       <c r="D62" s="44"/>
@@ -38605,11 +38729,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="H3:AI3"/>
-    <mergeCell ref="H5:N5"/>
-    <mergeCell ref="O5:U5"/>
-    <mergeCell ref="V5:AB5"/>
-    <mergeCell ref="AC5:AI5"/>
     <mergeCell ref="A47:A54"/>
     <mergeCell ref="A55:A62"/>
     <mergeCell ref="A1:D2"/>
@@ -38626,6 +38745,11 @@
     <mergeCell ref="A39:A46"/>
     <mergeCell ref="F3:F5"/>
     <mergeCell ref="G3:G5"/>
+    <mergeCell ref="H3:AI3"/>
+    <mergeCell ref="H5:N5"/>
+    <mergeCell ref="O5:U5"/>
+    <mergeCell ref="V5:AB5"/>
+    <mergeCell ref="AC5:AI5"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="H17:AI22">
